--- a/Tez/Attributes.xlsx
+++ b/Tez/Attributes.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Portal" sheetId="2" r:id="rId2"/>
     <sheet name="Logging" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Logging!$C$1:$C$86</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -6856,7 +6859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Tez/Attributes.xlsx
+++ b/Tez/Attributes.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Logging" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Logging!$C$1:$C$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Logging!$C$1:$C$85</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>TesterID</t>
   </si>
@@ -321,12 +321,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -343,7 +349,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,6 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6855,11 +6862,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6910,35 +6917,18 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>42</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5">
-        <v>7</v>
-      </c>
+      <c r="F2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>20</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="3">
         <v>3</v>
       </c>
@@ -6948,35 +6938,18 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5">
-        <v>4</v>
-      </c>
+      <c r="F3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>30</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K3" s="5"/>
       <c r="L3" s="3">
         <v>4</v>
       </c>
@@ -6986,35 +6959,18 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>45</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="3">
         <v>4</v>
       </c>
@@ -7024,35 +6980,18 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="F5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="I5" s="5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>80</v>
-      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="3">
         <v>5</v>
       </c>
@@ -7062,35 +7001,18 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>6</v>
-      </c>
-      <c r="I6" s="5">
-        <v>3</v>
-      </c>
+      <c r="F6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
-        <v>25</v>
-      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="3">
         <v>6</v>
       </c>
@@ -7100,35 +7022,18 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>4</v>
-      </c>
-      <c r="I7" s="5">
-        <v>5</v>
-      </c>
+      <c r="F7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <v>30</v>
-      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="3">
         <v>6</v>
       </c>
@@ -7138,35 +7043,18 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
         <v>2</v>
       </c>
+      <c r="F8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="5">
-        <v>45</v>
-      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="3">
         <v>13</v>
       </c>
@@ -7176,35 +7064,18 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="I9" s="5">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>15</v>
-      </c>
+      <c r="K9" s="5"/>
       <c r="L9" s="3">
         <v>14</v>
       </c>
@@ -7214,35 +7085,18 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>10</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
+      <c r="F10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>25</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="3">
         <v>14</v>
       </c>
@@ -7252,35 +7106,18 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>8</v>
-      </c>
-      <c r="I11" s="5">
-        <v>3</v>
-      </c>
+      <c r="F11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>55</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="3">
         <v>14</v>
       </c>
@@ -7290,35 +7127,18 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>66</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>6</v>
-      </c>
-      <c r="I12" s="5">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>35</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K12" s="5"/>
       <c r="L12" s="3">
         <v>15</v>
       </c>
@@ -7328,35 +7148,18 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>6</v>
-      </c>
-      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13">
         <v>4</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>35</v>
-      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="3">
         <v>17</v>
       </c>
@@ -7366,35 +7169,18 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>58</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>25</v>
-      </c>
+      <c r="K14" s="5"/>
       <c r="L14" s="3">
         <v>26</v>
       </c>
@@ -7404,35 +7190,18 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="5">
-        <v>2</v>
-      </c>
+      <c r="F15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K15" s="5"/>
       <c r="L15" s="3">
         <v>28</v>
       </c>
@@ -7442,34 +7211,14 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="3">
         <v>29</v>
@@ -7480,34 +7229,14 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="3">
         <v>31</v>
@@ -7518,34 +7247,14 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18" s="3">
         <v>32</v>
@@ -7556,34 +7265,14 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
       </c>
       <c r="L19" s="3">
         <v>35</v>
@@ -7594,34 +7283,14 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" s="3">
         <v>35</v>
@@ -7632,34 +7301,14 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L21" s="3">
         <v>35</v>
@@ -7670,34 +7319,14 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>36</v>
@@ -7708,34 +7337,14 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23" s="3">
         <v>39</v>
@@ -7746,34 +7355,14 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>40</v>
@@ -7784,34 +7373,14 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="3">
         <v>41</v>
@@ -7822,34 +7391,14 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <v>29</v>
-      </c>
-      <c r="D26">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L26" s="3">
         <v>42</v>
@@ -7860,34 +7409,14 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3">
         <v>42</v>
@@ -7898,34 +7427,14 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>30</v>
-      </c>
-      <c r="D28">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28" s="3">
         <v>42</v>
@@ -7936,34 +7445,14 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>42</v>
@@ -7974,34 +7463,14 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>31</v>
-      </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="3">
         <v>45</v>
@@ -8012,34 +7481,14 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L31" s="3">
         <v>46</v>
@@ -8050,34 +7499,14 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L32" s="3">
         <v>46</v>
@@ -8088,34 +7517,14 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" s="3">
         <v>47</v>
@@ -8126,34 +7535,14 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L34" s="3">
         <v>47</v>
@@ -8164,34 +7553,14 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>33</v>
-      </c>
-      <c r="D35">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" s="3">
         <v>47</v>
@@ -8202,33 +7571,13 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
         <v>0</v>
       </c>
       <c r="L36" s="3">
@@ -8240,34 +7589,14 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>35</v>
-      </c>
-      <c r="D37">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" s="3">
         <v>48</v>
@@ -8278,34 +7607,14 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2">
-        <v>35</v>
-      </c>
-      <c r="D38">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L38" s="3">
         <v>49</v>
@@ -8316,34 +7625,14 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>35</v>
-      </c>
-      <c r="D39">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" s="3">
         <v>50</v>
@@ -8354,34 +7643,14 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2">
-        <v>35</v>
-      </c>
-      <c r="D40">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L40" s="3">
         <v>50</v>
@@ -8392,34 +7661,14 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>35</v>
-      </c>
-      <c r="D41">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" s="3">
         <v>51</v>
@@ -8430,34 +7679,14 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2">
-        <v>36</v>
-      </c>
-      <c r="D42">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>51</v>
@@ -8468,34 +7697,14 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
-        <v>37</v>
-      </c>
-      <c r="D43">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>51</v>
@@ -8506,34 +7715,14 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>40</v>
-      </c>
-      <c r="D44">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>52</v>
@@ -8544,34 +7733,14 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" s="2">
-        <v>40</v>
-      </c>
-      <c r="D45">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L45" s="3">
         <v>52</v>
@@ -8582,34 +7751,14 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2">
-        <v>42</v>
-      </c>
-      <c r="D46">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" s="3">
         <v>52</v>
@@ -8620,33 +7769,13 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" s="2">
-        <v>43</v>
-      </c>
-      <c r="D47">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
         <v>0</v>
       </c>
       <c r="L47" s="3">
@@ -8658,34 +7787,14 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
-        <v>45</v>
-      </c>
-      <c r="D48">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>54</v>
@@ -8696,34 +7805,14 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" s="2">
-        <v>45</v>
-      </c>
-      <c r="D49">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>54</v>
@@ -8734,34 +7823,14 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2">
-        <v>46</v>
-      </c>
-      <c r="D50">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="3">
         <v>55</v>
@@ -8772,34 +7841,14 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2">
-        <v>47</v>
-      </c>
-      <c r="D51">
-        <v>42</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" s="3">
         <v>55</v>
@@ -8810,34 +7859,14 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
-        <v>47</v>
-      </c>
-      <c r="D52">
-        <v>42</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C52" s="2"/>
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>55</v>
@@ -8848,34 +7877,14 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2">
-        <v>48</v>
-      </c>
-      <c r="D53">
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L53" s="3">
         <v>56</v>
@@ -8886,34 +7895,14 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2">
-        <v>49</v>
-      </c>
-      <c r="D54">
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L54" s="3">
         <v>56</v>
@@ -8924,34 +7913,14 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55" s="2">
-        <v>49</v>
-      </c>
-      <c r="D55">
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
       <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L55" s="3">
         <v>59</v>
@@ -8962,33 +7931,13 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" s="2">
-        <v>49</v>
-      </c>
-      <c r="D56">
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
         <v>0</v>
       </c>
       <c r="L56" s="3">
@@ -9000,33 +7949,13 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>49</v>
-      </c>
-      <c r="D57">
-        <v>44</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
         <v>0</v>
       </c>
       <c r="L57" s="3">
@@ -9038,34 +7967,14 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2">
-        <v>50</v>
-      </c>
-      <c r="D58">
-        <v>44</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>60</v>
@@ -9076,34 +7985,14 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2">
-        <v>50</v>
-      </c>
-      <c r="D59">
-        <v>46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>60</v>
@@ -9114,34 +8003,14 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2">
-        <v>51</v>
-      </c>
-      <c r="D60">
-        <v>46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L60" s="3">
         <v>61</v>
@@ -9152,34 +8021,14 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" s="2">
-        <v>52</v>
-      </c>
-      <c r="D61">
-        <v>46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L61" s="3">
         <v>61</v>
@@ -9190,34 +8039,14 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62" s="2">
-        <v>53</v>
-      </c>
-      <c r="D62">
-        <v>46</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>65</v>
@@ -9228,33 +8057,13 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2">
-        <v>53</v>
-      </c>
-      <c r="D63">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
         <v>0</v>
       </c>
       <c r="L63" s="3">
@@ -9266,34 +8075,14 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2">
-        <v>54</v>
-      </c>
-      <c r="D64">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L64" s="3">
         <v>72</v>
@@ -9304,34 +8093,14 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" s="2">
-        <v>54</v>
-      </c>
-      <c r="D65">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L65" s="3">
         <v>73</v>
@@ -9342,34 +8111,14 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66" s="2">
-        <v>57</v>
-      </c>
-      <c r="D66">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L66" s="3">
         <v>73</v>
@@ -9380,34 +8129,14 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2">
-        <v>58</v>
-      </c>
-      <c r="D67">
-        <v>48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C67" s="2"/>
       <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L67" s="3">
         <v>73</v>
@@ -9418,34 +8147,14 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2">
-        <v>59</v>
-      </c>
-      <c r="D68">
-        <v>48</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="E68" s="6">
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L68" s="3">
         <v>75</v>
@@ -9456,34 +8165,14 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69" s="2">
-        <v>59</v>
-      </c>
-      <c r="D69">
-        <v>48</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="E69" s="6">
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L69" s="3">
         <v>76</v>
@@ -9494,34 +8183,14 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70" s="2">
-        <v>60</v>
-      </c>
-      <c r="D70">
-        <v>48</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="E70" s="6">
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L70" s="3">
         <v>77</v>
@@ -9532,34 +8201,14 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2">
-        <v>60</v>
-      </c>
-      <c r="D71">
-        <v>49</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
       <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L71" s="3">
         <v>77</v>
@@ -9570,34 +8219,14 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2">
-        <v>60</v>
-      </c>
-      <c r="D72">
-        <v>49</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="E72" s="6">
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L72" s="3">
         <v>79</v>
@@ -9608,34 +8237,14 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73" s="2">
-        <v>63</v>
-      </c>
-      <c r="D73">
-        <v>50</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="E73" s="6">
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L73" s="3">
         <v>81</v>
@@ -9646,34 +8255,14 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74" s="2">
-        <v>64</v>
-      </c>
-      <c r="D74">
-        <v>50</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L74" s="3">
         <v>81</v>
@@ -9684,34 +8273,14 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75" s="2">
-        <v>65</v>
-      </c>
-      <c r="D75">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L75" s="3">
         <v>82</v>
@@ -9722,34 +8291,14 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2">
-        <v>67</v>
-      </c>
-      <c r="D76">
-        <v>54</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="E76" s="6">
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L76" s="3">
         <v>87</v>
@@ -9760,34 +8309,14 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2">
-        <v>67</v>
-      </c>
-      <c r="D77">
-        <v>54</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="E77" s="6">
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L77" s="3">
         <v>92</v>
@@ -9795,158 +8324,60 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2">
-        <v>68</v>
-      </c>
-      <c r="D78">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L78" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2">
-        <v>69</v>
-      </c>
-      <c r="D79">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79" s="3">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2">
-        <v>70</v>
-      </c>
-      <c r="D80">
-        <v>54</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="E80" s="6">
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L80" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2">
-        <v>70</v>
-      </c>
-      <c r="D81">
-        <v>54</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H86" s="4"/>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H85" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
